--- a/NorthwindTablesAndColumns.xlsx
+++ b/NorthwindTablesAndColumns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://reliablecollaboration-my.sharepoint.com/personal/bess_rcc_team/Documents/Courseware/DataAnalyticsWeek5-8/Student Files/Week 9 downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\YUU-learnToCode\DataAnalytics\Week_9\W9_Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA878EF4-4B80-439A-88BC-05CECC90D1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183631EB-19E4-4547-B1FC-D4CE772727BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{901F5D27-877F-4C94-89AE-9A9B6ECE5CB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{901F5D27-877F-4C94-89AE-9A9B6ECE5CB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Northwind Columns" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="95">
   <si>
     <t>table_name</t>
   </si>
@@ -308,6 +308,18 @@
   </si>
   <si>
     <t>New Name?</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>fk</t>
+  </si>
+  <si>
+    <t>half null</t>
   </si>
 </sst>
 </file>
@@ -383,7 +395,53 @@
     <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -696,26 +754,27 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.86328125" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.265625" customWidth="1"/>
-    <col min="7" max="7" width="17.86328125" customWidth="1"/>
-    <col min="9" max="9" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.59765625" customWidth="1"/>
-    <col min="13" max="13" width="11.59765625" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -759,7 +818,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -775,8 +834,12 @@
       <c r="E2" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,7 +856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +872,11 @@
       <c r="E4" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +892,11 @@
       <c r="E5" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="H5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -843,8 +912,11 @@
       <c r="E6" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -861,7 +933,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -877,8 +949,11 @@
       <c r="E8" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -894,8 +969,11 @@
       <c r="E9" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -911,8 +989,11 @@
       <c r="E10" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -929,7 +1010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -945,8 +1026,11 @@
       <c r="E12" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -963,7 +1047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -980,7 +1064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -997,7 +1081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1013,8 +1097,11 @@
       <c r="E16" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1030,8 +1117,11 @@
       <c r="E17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F17" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1048,7 +1138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1065,7 +1155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1081,8 +1171,11 @@
       <c r="E20" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1098,8 +1191,11 @@
       <c r="E21" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1116,7 +1212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1133,7 +1229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1149,8 +1245,11 @@
       <c r="E24" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1167,7 +1266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1183,8 +1282,14 @@
       <c r="E26" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
+      <c r="N26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1201,7 +1306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1218,7 +1323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1234,8 +1339,11 @@
       <c r="E29" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -1251,8 +1359,11 @@
       <c r="E30" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -1268,8 +1379,11 @@
       <c r="E31" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1285,8 +1399,11 @@
       <c r="E32" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
@@ -1303,7 +1420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
@@ -1319,8 +1436,11 @@
       <c r="E34" s="1">
         <v>510</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
@@ -1336,8 +1456,11 @@
       <c r="E35" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
@@ -1353,8 +1476,11 @@
       <c r="E36" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -1370,8 +1496,12 @@
       <c r="E37" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -1387,8 +1517,11 @@
       <c r="E38" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1405,7 +1538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -1422,7 +1555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -1439,7 +1572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -1455,8 +1588,11 @@
       <c r="E42" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F42" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>53</v>
       </c>
@@ -1472,8 +1608,11 @@
       <c r="E43" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
@@ -1489,8 +1628,11 @@
       <c r="E44" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
@@ -1507,7 +1649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
@@ -1524,7 +1666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
@@ -1541,7 +1683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -1557,8 +1699,11 @@
       <c r="E48" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -1575,7 +1720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
@@ -1592,7 +1737,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -1608,8 +1753,11 @@
       <c r="E51" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
@@ -1626,7 +1774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -1643,7 +1791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -1660,7 +1808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -1677,7 +1825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -1694,7 +1842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -1711,7 +1859,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
@@ -1728,7 +1876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>65</v>
       </c>
@@ -1745,7 +1893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
@@ -1762,7 +1910,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -1779,7 +1927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
@@ -1796,7 +1944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -1813,7 +1961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -1830,7 +1978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -1847,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>22</v>
       </c>
@@ -1864,7 +2012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>22</v>
       </c>
@@ -1881,7 +2029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
@@ -1898,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>76</v>
       </c>
@@ -1915,7 +2063,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>76</v>
       </c>
@@ -1932,7 +2080,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>78</v>
       </c>
@@ -1949,7 +2097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>78</v>
       </c>
@@ -1966,7 +2114,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>78</v>
       </c>
@@ -1983,7 +2131,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>78</v>
       </c>
@@ -2000,7 +2148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
@@ -2017,7 +2165,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>78</v>
       </c>
@@ -2034,7 +2182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
@@ -2051,7 +2199,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -2068,7 +2216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -2085,7 +2233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
@@ -2102,7 +2250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>78</v>
       </c>
@@ -2119,7 +2267,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>78</v>
       </c>
@@ -2136,7 +2284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -2153,7 +2301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
@@ -2170,7 +2318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>80</v>
       </c>
@@ -2188,6 +2336,24 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="containsBlanks" dxfId="4" priority="4">
+      <formula>LEN(TRIM(H1))=0</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="remove">
+      <formula>NOT(ISERROR(SEARCH("remove",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pk">
+      <formula>NOT(ISERROR(SEARCH("pk",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="fk">
+      <formula>NOT(ISERROR(SEARCH("fk",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2202,6 +2368,25 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ced60a7f-99b1-48d2-b555-34851c8026ae" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9e0b35a9-e6cb-436b-81d4-4440ba439ca5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="ced60a7f-99b1-48d2-b555-34851c8026ae">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="9e0b35a9-e6cb-436b-81d4-4440ba439ca5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CA5D0A6329BB324E86983B32928CFC2E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b28f3bc5995c0091f528145aa367664">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9e0b35a9-e6cb-436b-81d4-4440ba439ca5" xmlns:ns3="ced60a7f-99b1-48d2-b555-34851c8026ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48800952b0413791e1a5c8543532e00d" ns2:_="" ns3:_="">
     <xsd:import namespace="9e0b35a9-e6cb-436b-81d4-4440ba439ca5"/>
@@ -2442,25 +2627,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ced60a7f-99b1-48d2-b555-34851c8026ae" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9e0b35a9-e6cb-436b-81d4-4440ba439ca5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="ced60a7f-99b1-48d2-b555-34851c8026ae">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="9e0b35a9-e6cb-436b-81d4-4440ba439ca5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0257D61C-6042-483B-9C34-3DE0D82CB154}">
   <ds:schemaRefs>
@@ -2470,6 +2636,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BB560F9-4CC1-4243-8F16-7FDC2CD703FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ced60a7f-99b1-48d2-b555-34851c8026ae"/>
+    <ds:schemaRef ds:uri="9e0b35a9-e6cb-436b-81d4-4440ba439ca5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C0F2F57-CFBB-4DE2-9688-0C0C6A435162}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2486,15 +2663,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BB560F9-4CC1-4243-8F16-7FDC2CD703FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ced60a7f-99b1-48d2-b555-34851c8026ae"/>
-    <ds:schemaRef ds:uri="9e0b35a9-e6cb-436b-81d4-4440ba439ca5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>